--- a/HONEWeb/res/icon/color & text.xlsx
+++ b/HONEWeb/res/icon/color & text.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="16935" windowHeight="1665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -375,7 +376,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
